--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Data analysis\Project\DA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCA40FD-07C0-43F5-BEB5-26A87A4D08BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE14DA4-9BB7-4711-90F3-8E7C6FD0BE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="23145" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -62,17 +62,28 @@
   <si>
     <t>Household</t>
   </si>
+  <si>
+    <t>Income per member</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,110 +338,116 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -439,7 +456,7 @@
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="2" xr:uid="{537F5AAF-8FB5-4102-8162-DBAF870ACCD2}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -490,39 +507,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -559,6 +543,39 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -759,6 +776,57 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -790,36 +858,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -834,20 +872,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCFF4C39-8917-466E-B953-5055294EE39B}" name="Tabela1" displayName="Tabela1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:H31" xr:uid="{BCFF4C39-8917-466E-B953-5055294EE39B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCFF4C39-8917-466E-B953-5055294EE39B}" name="Tabela1" displayName="Tabela1" ref="A1:I31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I31" xr:uid="{BCFF4C39-8917-466E-B953-5055294EE39B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
     <sortCondition ref="A1:A31"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C2AC49CF-77B7-4498-8674-B7C9E1913BA0}" name="Year" dataDxfId="8" dataCellStyle="Normalny 2"/>
     <tableColumn id="2" xr3:uid="{FC164EBE-EA72-4DDD-AA2E-E360B6CF4A27}" name="Married" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{59BA63F6-96F1-4DDF-88C6-6F070670B685}" name="Divorced" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{822F4D2C-AC32-4EF6-8ABB-503CDFCF30CF}" name="Single" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{31F0B642-49B9-4D17-97A4-3374D76D0F69}" name="Total" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{711D5392-1D48-487F-B04E-316A57E6CECD}" name="Income" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{2AB42DA3-ECC9-4F53-A2CF-D5B17DFC93A4}" name="Mean age" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{29DD1EB3-5327-404B-A597-407905D27194}" name="Household" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{711D5392-1D48-487F-B04E-316A57E6CECD}" name="Income per member" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{2AB42DA3-ECC9-4F53-A2CF-D5B17DFC93A4}" name="Mean age" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{29DD1EB3-5327-404B-A597-407905D27194}" name="Household" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{43367E27-C114-45D9-84BA-312879FAEC6C}" name="Income" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1116,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,12 +1167,13 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1149,8 +1189,8 @@
       <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>4</v>
+      <c r="F1" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>6</v>
@@ -1158,8 +1198,11 @@
       <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1993</v>
       </c>
@@ -1176,7 +1219,7 @@
         <v>197254</v>
       </c>
       <c r="F2" s="24">
-        <v>78140</v>
+        <v>15500</v>
       </c>
       <c r="G2" s="23">
         <v>25.5</v>
@@ -1184,8 +1227,11 @@
       <c r="H2" s="29">
         <v>96391</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="36">
+        <v>78140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>1994</v>
       </c>
@@ -1202,7 +1248,7 @@
         <v>200800</v>
       </c>
       <c r="F3" s="24">
-        <v>79610</v>
+        <v>16300</v>
       </c>
       <c r="G3" s="23">
         <v>25.6</v>
@@ -1210,8 +1256,11 @@
       <c r="H3" s="29">
         <v>97107</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="36">
+        <v>79610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>1995</v>
       </c>
@@ -1228,7 +1277,7 @@
         <v>202732</v>
       </c>
       <c r="F4" s="24">
-        <v>81030</v>
+        <v>16940</v>
       </c>
       <c r="G4" s="23">
         <v>25.7</v>
@@ -1236,8 +1285,11 @@
       <c r="H4" s="29">
         <v>98990</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="36">
+        <v>81030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>1996</v>
       </c>
@@ -1254,7 +1306,7 @@
         <v>204624</v>
       </c>
       <c r="F5" s="24">
-        <v>82780</v>
+        <v>17850</v>
       </c>
       <c r="G5" s="23">
         <v>25.950000000000003</v>
@@ -1262,8 +1314,11 @@
       <c r="H5" s="29">
         <v>99627</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="36">
+        <v>82780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>1997</v>
       </c>
@@ -1280,7 +1335,7 @@
         <v>207235</v>
       </c>
       <c r="F6" s="24">
-        <v>85460</v>
+        <v>18940</v>
       </c>
       <c r="G6" s="23">
         <v>25.9</v>
@@ -1288,8 +1343,11 @@
       <c r="H6" s="29">
         <v>101018</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="36">
+        <v>85460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>1998</v>
       </c>
@@ -1306,7 +1364,7 @@
         <v>209291</v>
       </c>
       <c r="F7" s="24">
-        <v>87980</v>
+        <v>19840</v>
       </c>
       <c r="G7" s="23">
         <v>25.85</v>
@@ -1314,8 +1372,11 @@
       <c r="H7" s="29">
         <v>102528</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="36">
+        <v>87980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>1999</v>
       </c>
@@ -1332,7 +1393,7 @@
         <v>211676</v>
       </c>
       <c r="F8" s="24">
-        <v>90990</v>
+        <v>21060</v>
       </c>
       <c r="G8" s="23">
         <v>26</v>
@@ -1340,8 +1401,11 @@
       <c r="H8" s="29">
         <v>103874</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="36">
+        <v>90990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>2000</v>
       </c>
@@ -1358,7 +1422,7 @@
         <v>213774</v>
       </c>
       <c r="F9" s="24">
-        <v>91810</v>
+        <v>22130</v>
       </c>
       <c r="G9" s="23">
         <v>25.950000000000003</v>
@@ -1366,8 +1430,11 @@
       <c r="H9" s="29">
         <v>104705</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="36">
+        <v>91810</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2001</v>
       </c>
@@ -1384,7 +1451,7 @@
         <v>219035</v>
       </c>
       <c r="F10" s="24">
-        <v>91470</v>
+        <v>22570</v>
       </c>
       <c r="G10" s="23">
         <v>26</v>
@@ -1392,8 +1459,11 @@
       <c r="H10" s="29">
         <v>108209</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="36">
+        <v>91470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2002</v>
       </c>
@@ -1410,7 +1480,7 @@
         <v>221458</v>
       </c>
       <c r="F11" s="24">
-        <v>89790</v>
+        <v>22530</v>
       </c>
       <c r="G11" s="23">
         <v>26.1</v>
@@ -1418,8 +1488,11 @@
       <c r="H11" s="29">
         <v>109297</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="36">
+        <v>89790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2003</v>
       </c>
@@ -1436,7 +1509,7 @@
         <v>225057</v>
       </c>
       <c r="F12" s="24">
-        <v>89810</v>
+        <v>22970</v>
       </c>
       <c r="G12" s="23">
         <v>26.200000000000003</v>
@@ -1444,8 +1517,11 @@
       <c r="H12" s="29">
         <v>111278</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="36">
+        <v>89810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>2004</v>
       </c>
@@ -1462,7 +1538,7 @@
         <v>227343</v>
       </c>
       <c r="F13" s="24">
-        <v>89690</v>
+        <v>23550</v>
       </c>
       <c r="G13" s="23">
         <v>26.35</v>
@@ -1470,8 +1546,11 @@
       <c r="H13" s="29">
         <v>112000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="36">
+        <v>89690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>2005</v>
       </c>
@@ -1488,7 +1567,7 @@
         <v>230272</v>
       </c>
       <c r="F14" s="24">
-        <v>91310</v>
+        <v>24670</v>
       </c>
       <c r="G14" s="23">
         <v>26.200000000000003</v>
@@ -1496,8 +1575,11 @@
       <c r="H14" s="29">
         <v>113343</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="36">
+        <v>91310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>2006</v>
       </c>
@@ -1514,7 +1596,7 @@
         <v>233039</v>
       </c>
       <c r="F15" s="24">
-        <v>93260</v>
+        <v>26040</v>
       </c>
       <c r="G15" s="23">
         <v>26.5</v>
@@ -1522,8 +1604,11 @@
       <c r="H15" s="29">
         <v>114384</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="36">
+        <v>93260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>2007</v>
       </c>
@@ -1540,7 +1625,7 @@
         <v>235848</v>
       </c>
       <c r="F16" s="24">
-        <v>92340</v>
+        <v>26410</v>
       </c>
       <c r="G16" s="23">
         <v>26.55</v>
@@ -1548,8 +1633,11 @@
       <c r="H16" s="29">
         <v>116011</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="36">
+        <v>92340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>2008</v>
       </c>
@@ -1566,7 +1654,7 @@
         <v>237993</v>
       </c>
       <c r="F17" s="24">
-        <v>90150</v>
+        <v>26610</v>
       </c>
       <c r="G17" s="23">
         <v>26.75</v>
@@ -1574,8 +1662,11 @@
       <c r="H17" s="29">
         <v>116783</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="36">
+        <v>90150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>2009</v>
       </c>
@@ -1592,7 +1683,7 @@
         <v>240032</v>
       </c>
       <c r="F18" s="24">
-        <v>89920</v>
+        <v>26270</v>
       </c>
       <c r="G18" s="23">
         <v>27</v>
@@ -1600,8 +1691,11 @@
       <c r="H18" s="29">
         <v>117181</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="36">
+        <v>89920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>2010</v>
       </c>
@@ -1618,7 +1712,7 @@
         <v>242047</v>
       </c>
       <c r="F19" s="24">
-        <v>87940</v>
+        <v>26380</v>
       </c>
       <c r="G19" s="23">
         <v>27.15</v>
@@ -1626,8 +1720,11 @@
       <c r="H19" s="29">
         <v>117538</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="36">
+        <v>87940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>2011</v>
       </c>
@@ -1644,7 +1741,7 @@
         <v>245275</v>
       </c>
       <c r="F20" s="24">
-        <v>88190</v>
+        <v>27330</v>
       </c>
       <c r="G20" s="23">
         <v>27.4</v>
@@ -1652,8 +1749,11 @@
       <c r="H20" s="29">
         <v>119927</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="36">
+        <v>88190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>2012</v>
       </c>
@@ -1670,7 +1770,7 @@
         <v>247572</v>
       </c>
       <c r="F21" s="24">
-        <v>88500</v>
+        <v>28070</v>
       </c>
       <c r="G21" s="23">
         <v>27.6</v>
@@ -1678,8 +1778,11 @@
       <c r="H21" s="29">
         <v>121084</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="36">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>2013</v>
       </c>
@@ -1696,7 +1799,7 @@
         <v>249893</v>
       </c>
       <c r="F22" s="24">
-        <v>92250</v>
+        <v>29750</v>
       </c>
       <c r="G22" s="23">
         <v>27.8</v>
@@ -1704,8 +1807,11 @@
       <c r="H22" s="29">
         <v>122459</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="36">
+        <v>92250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>2014</v>
       </c>
@@ -1722,7 +1828,7 @@
         <v>252224</v>
       </c>
       <c r="F23" s="24">
-        <v>91610</v>
+        <v>29860</v>
       </c>
       <c r="G23" s="23">
         <v>28.15</v>
@@ -1730,8 +1836,11 @@
       <c r="H23" s="29">
         <v>123229</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="36">
+        <v>91610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>2015</v>
       </c>
@@ -1748,7 +1857,7 @@
         <v>255016</v>
       </c>
       <c r="F24" s="24">
-        <v>95950</v>
+        <v>31300</v>
       </c>
       <c r="G24" s="23">
         <v>28.15</v>
@@ -1756,8 +1865,11 @@
       <c r="H24" s="29">
         <v>124587</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="36">
+        <v>95950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>2016</v>
       </c>
@@ -1774,7 +1886,7 @@
         <v>257615</v>
       </c>
       <c r="F25" s="24">
-        <v>99760</v>
+        <v>32790</v>
       </c>
       <c r="G25" s="23">
         <v>28.45</v>
@@ -1782,8 +1894,11 @@
       <c r="H25" s="28">
         <v>125819</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="36">
+        <v>99760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>2017</v>
       </c>
@@ -1800,7 +1915,7 @@
         <v>259063</v>
       </c>
       <c r="F26" s="24">
-        <v>103300</v>
+        <v>34640</v>
       </c>
       <c r="G26" s="23">
         <v>28.45</v>
@@ -1808,8 +1923,11 @@
       <c r="H26" s="27">
         <v>126224</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="36">
+        <v>103300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>2018</v>
       </c>
@@ -1826,7 +1944,7 @@
         <v>262058</v>
       </c>
       <c r="F27" s="24">
-        <v>104100</v>
+        <v>35700</v>
       </c>
       <c r="G27" s="23">
         <v>28.8</v>
@@ -1834,8 +1952,11 @@
       <c r="H27" s="27">
         <v>127586</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="36">
+        <v>104100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>2019</v>
       </c>
@@ -1852,7 +1973,7 @@
         <v>263457</v>
       </c>
       <c r="F28" s="24">
-        <v>111700</v>
+        <v>38760</v>
       </c>
       <c r="G28" s="23">
         <v>28.9</v>
@@ -1860,8 +1981,11 @@
       <c r="H28" s="25">
         <v>128579</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="36">
+        <v>111700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>2020</v>
       </c>
@@ -1878,7 +2002,7 @@
         <v>264696</v>
       </c>
       <c r="F29" s="24">
-        <v>109900</v>
+        <v>38410</v>
       </c>
       <c r="G29" s="23">
         <v>29.3</v>
@@ -1886,8 +2010,11 @@
       <c r="H29" s="25">
         <v>128451</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="36">
+        <v>109900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>2021</v>
       </c>
@@ -1904,7 +2031,7 @@
         <v>267174</v>
       </c>
       <c r="F30" s="24">
-        <v>110300</v>
+        <v>40860</v>
       </c>
       <c r="G30" s="23">
         <v>29.450000000000003</v>
@@ -1912,8 +2039,11 @@
       <c r="H30" s="25">
         <v>129244</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="36">
+        <v>110300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>2022</v>
       </c>
@@ -1930,7 +2060,7 @@
         <v>268583</v>
       </c>
       <c r="F31" s="32">
-        <v>106400</v>
+        <v>42330</v>
       </c>
       <c r="G31" s="31">
         <v>29.15</v>
@@ -1938,8 +2068,11 @@
       <c r="H31" s="35">
         <v>131202</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="36">
+        <v>106400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="17"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Data analysis\Project\DA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE14DA4-9BB7-4711-90F3-8E7C6FD0BE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F063E8-B81F-464F-9E89-ACCBAC3BAE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
